--- a/data/ScTyperDB-merged.xlsx
+++ b/data/ScTyperDB-merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18-Github\mysc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\18-Github\scsig\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CDD45-0B9B-4B49-A500-1A836DDE4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8630F0AA-F603-44FE-A4BF-5EC2AECBEA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3060" windowWidth="28470" windowHeight="13680" activeTab="1" xr2:uid="{DA7D8EE2-F231-4938-802C-893A06040783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DA7D8EE2-F231-4938-802C-893A06040783}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="3" r:id="rId1"/>
@@ -26,20 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="1907">
   <si>
     <t>tissueType</t>
   </si>
@@ -7486,6 +7478,14 @@
   </si>
   <si>
     <t>Single-Cell Transcriptomics of Human and Mouse Lung Cancers Reveals Conserved Myeloid Populations across Individuals and Species</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesothelial cells</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-Cell Analyses Inform Mechanisms of Myeloid-Targeted Therapies in Colon Cancer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9166,7 +9166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9579,7 +9579,7 @@
         <v>1171</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>377</v>
+        <v>1905</v>
       </c>
       <c r="C14" s="239" t="s">
         <v>1749</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="77" spans="1:10" s="272" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="270" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B77" s="273" t="s">
         <v>1852</v>
@@ -11716,7 +11716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B768C7-F689-476F-82AB-5158C0CBFD0B}">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -17187,9 +17187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C789E322-70FC-47AC-9174-A3461F8825BC}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17903,7 +17903,7 @@
         <v>1264</v>
       </c>
       <c r="J22" s="177" t="s">
-        <v>1265</v>
+        <v>1906</v>
       </c>
       <c r="K22" s="187"/>
       <c r="L22" s="188"/>
@@ -29602,7 +29602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29610,8 +29610,8 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
